--- a/valNodeOne/evidence.xlsx
+++ b/valNodeOne/evidence.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F16611EB-BE74-4ABF-9B58-1844663E4857}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C81DA480-7361-4C03-9C86-DEAE2AE5B52C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="7" activeTab="23" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
@@ -38,23 +38,18 @@
     <sheet name="B2" sheetId="23" r:id="rId23"/>
     <sheet name="B5" sheetId="24" r:id="rId24"/>
     <sheet name="B6" sheetId="25" r:id="rId25"/>
+    <sheet name="B7" sheetId="26" r:id="rId26"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="55">
   <si>
     <t>TxHash</t>
   </si>
   <si>
-    <t>The first Interchain NFT-Transfer TxHash</t>
-  </si>
-  <si>
-    <t>The Internal Transfer TxHash on IRISnet</t>
-  </si>
-  <si>
     <t>ChainID</t>
   </si>
   <si>
@@ -169,13 +164,52 @@
     <t>6A3782EA64B2FFEE5EED78FE9F364209152524320E509B7FC1A0429AB0D87B5C</t>
   </si>
   <si>
-    <t>c003</t>
-  </si>
-  <si>
     <t>ibc/44A716E450197E2B00281D8096CCF34F3A31C9895E87407C46FE44115AC513E5</t>
   </si>
   <si>
     <t>cc004</t>
+  </si>
+  <si>
+    <t>ibc/180547DC007938CD5B7A5F1358535C5B14B4A4102A44F9E2F2E784AA5412B3AE</t>
+  </si>
+  <si>
+    <t>0E1C459814D278D9F568345E7E63D3DEDF3B9B771AEC403D51EFD78B86D9410D</t>
+  </si>
+  <si>
+    <t>C2A648C3887C9AB7EC8DD45361284353EAE8167C93E1D877E43EA0459C5874D1</t>
+  </si>
+  <si>
+    <t>57ABF770CBAFCC467A893CFE3E39B52F9A7AA9A6921C13C4F96B69D220451FEC</t>
+  </si>
+  <si>
+    <t>675ADA9D2C2D99378619087C00EE4C786E0F0844117B881E83A7E4D7D87928B3</t>
+  </si>
+  <si>
+    <t>ibc/15DAF0075C06788CD9CC2C2E257C02BC69D5DC728EFAB0A2166820CD8822A6BA</t>
+  </si>
+  <si>
+    <t>cc003</t>
+  </si>
+  <si>
+    <t>ibc/7984C6AB079A6DBF4E7FBFD7B51C397E8CD0C1ACA440AC2B21D1FCD19700AA85</t>
+  </si>
+  <si>
+    <t>84B1E499A43C18ED149E18C53DCBB8BA75968A9B7E34472B0E19D558136A3FFD</t>
+  </si>
+  <si>
+    <t>4211556A58C2881FF883DB4A8C00EF1F5A24F48B77087F72328EB4DE689CD0A1</t>
+  </si>
+  <si>
+    <t>01A3465035B2249465A2C0E61A14DE0DDF3E428E07F4F786CD371C721F7F6C87</t>
+  </si>
+  <si>
+    <t>D2D74614B5ED2BA0A15DF321478C6559A8E19089D420879BD9655FC907D4AB4F</t>
+  </si>
+  <si>
+    <t>DA1954391E8FB11EB3CCD733B5ADB2E0EE544CC47E318B26C2F714E740EB5B89</t>
+  </si>
+  <si>
+    <t>6B03F37B5372218785A063C9ED99C9BF48C07CC792C20F27A7FC8E2CAA684848</t>
   </si>
 </sst>
 </file>
@@ -598,54 +632,54 @@
   <sheetData>
     <row r="1" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>21</v>
-      </c>
       <c r="H2" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -663,6 +697,82 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="88.28515625" customWidth="1"/>
+    <col min="2" max="2" width="9.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="88.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -673,27 +783,27 @@
   <sheetData>
     <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -709,31 +819,31 @@
   <sheetData>
     <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:B2"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -745,31 +855,41 @@
   <sheetData>
     <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>8</v>
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:B2"/>
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -781,27 +901,37 @@
   <sheetData>
     <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>8</v>
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -820,34 +950,34 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -866,34 +996,34 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -912,34 +1042,34 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -958,117 +1088,25 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
         <v>4</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -1098,15 +1136,15 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1134,25 +1172,25 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -1180,25 +1218,25 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -1213,11 +1251,13 @@
   </sheetPr>
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="84" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1227,16 +1267,17 @@
     </row>
     <row r="2" spans="1:1" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>1</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+        <v>44</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1247,11 +1288,13 @@
   </sheetPr>
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="84" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1261,12 +1304,12 @@
     </row>
     <row r="2" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>1</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>2</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -1281,11 +1324,13 @@
   </sheetPr>
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="83.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1295,16 +1340,17 @@
     </row>
     <row r="2" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>1</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+        <v>54</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1315,11 +1361,13 @@
   </sheetPr>
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="81.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1329,12 +1377,48 @@
     </row>
     <row r="2" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>1</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>2</v>
+        <v>51</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D74BF85-36F6-4304-A962-7FE147740E51}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="82.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -1365,32 +1449,32 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -1422,27 +1506,27 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -1475,27 +1559,27 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>36</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -1528,27 +1612,27 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -1580,27 +1664,27 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B2" s="2" t="s">
         <v>38</v>
       </c>
+      <c r="B2" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="C2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -1616,7 +1700,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1627,18 +1711,18 @@
   <sheetData>
     <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -1653,30 +1737,30 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="84.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/valNodeOne/evidence.xlsx
+++ b/valNodeOne/evidence.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C81DA480-7361-4C03-9C86-DEAE2AE5B52C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E132AC4-EF49-4234-A71F-39492F23F3D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="7" activeTab="23" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="3" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="93">
   <si>
     <t>TxHash</t>
   </si>
@@ -53,15 +53,6 @@
     <t>ChainID</t>
   </si>
   <si>
-    <t>tx hash on that chain</t>
-  </si>
-  <si>
-    <t>chain id</t>
-  </si>
-  <si>
-    <t>tx hash on that chain	chain id</t>
-  </si>
-  <si>
     <t>ClassID</t>
   </si>
   <si>
@@ -71,9 +62,6 @@
     <t>ibc class on chain</t>
   </si>
   <si>
-    <t>nft id</t>
-  </si>
-  <si>
     <t>TeamName</t>
   </si>
   <si>
@@ -210,6 +198,132 @@
   </si>
   <si>
     <t>6B03F37B5372218785A063C9ED99C9BF48C07CC792C20F27A7FC8E2CAA684848</t>
+  </si>
+  <si>
+    <t>cc005</t>
+  </si>
+  <si>
+    <t>ibc/B1FAA8ED9DCFA7DDEA0B4626D6353746C02FFF1463917F7975E118813CF5DF69</t>
+  </si>
+  <si>
+    <t>1D0934BF5D693436EA5AB4916E55F7EE3784971313D69F9EA7DFDFAD96889FC0</t>
+  </si>
+  <si>
+    <t>B80D018FC6227E4D2C1B744FBE94D93E484C04D6B6B95AC688F6FD1B8B423E33</t>
+  </si>
+  <si>
+    <t>2C6410EDEAD57316570DF6BD19465E70F61D880CFE766390C64BF07826900595</t>
+  </si>
+  <si>
+    <t>gon-irishub-1</t>
+  </si>
+  <si>
+    <t>uptick_7000-2</t>
+  </si>
+  <si>
+    <t>BD8FFB0E1F4D80A475375CD42703EBE66B106186B510FF511CC83E26D6784BCD</t>
+  </si>
+  <si>
+    <t>0181FD0F3C8D9EC97C970655D7CA182F4EB0F4D540B4879439BCE9A74A80A0F6</t>
+  </si>
+  <si>
+    <t>450B9E94A23420984AA811D64261FD83FA6CCF0F578D1C20466E8B08E015C22C</t>
+  </si>
+  <si>
+    <t>3EB0784227B52D0C2E9D677C710FA8B66EAD7F9B025428AD3FC2F5AD983B5837</t>
+  </si>
+  <si>
+    <t>406A34EDFE205AEFBF8FCA8483B585E5219A661D1C662AA44FBF72ADC5CB6CDA</t>
+  </si>
+  <si>
+    <t>uni-6</t>
+  </si>
+  <si>
+    <t>D3F581DEB0632708B1D471F5D6E28CD81404C8A34B32134E136D3BD294E4C3E1</t>
+  </si>
+  <si>
+    <t>72D1426726BE09A14F24D9851BA0D5D1D4069E724272443A90CBB1893B6E2FC2</t>
+  </si>
+  <si>
+    <t>9D06937E115100FE690D299918A6DF1060993619A2DD7E10104AD91308503614</t>
+  </si>
+  <si>
+    <t>EF4656DB9EDCAB97D050BD05A5561B96D5A74BA55E59F7C6B8989AB9FEC15581</t>
+  </si>
+  <si>
+    <t>7FE8E585641178D5553320236D41C32733DEE9715CE7498CC249C0C3F74FFD21</t>
+  </si>
+  <si>
+    <t>70D464EB7AD740E5722634217441252C5CC1C8F3B09E0CE9B96213FF067D1F9F</t>
+  </si>
+  <si>
+    <t>0F6EDE41A29DD6D6C16FB701B6C958C84A7B7335926EFCEE99B70361D4D92FC3</t>
+  </si>
+  <si>
+    <t>5E3DD5A3D40A96A78649A2EE3A3C93FC37104F5E47B02BF3585AAE35B67F04E9</t>
+  </si>
+  <si>
+    <t>0EFBB3C0A68C5D24A3F322147F6D73AAF5D3FD99959E0922D60B71B6283A65F2</t>
+  </si>
+  <si>
+    <t>AD26EFD4BA9490160B331295F4B24E23CA722591BC4F676100690422268E5609</t>
+  </si>
+  <si>
+    <t>C0968072F28A58FF8803C4B0EFCF58BE68200CB2C0DDAB8A170AD2075C4F6882</t>
+  </si>
+  <si>
+    <t>7359CF11C75AF2F5C28002D3272E998DE645961286D6527C832D5D1CF4AA8816</t>
+  </si>
+  <si>
+    <t>7BEF3FD8743CDDF7636B77EF5B5717C3343E66AE31BF12102ADCD8CE128CFC29</t>
+  </si>
+  <si>
+    <t>DCEB2CBADC6CAA0B27DB3607C6156B927999D4EF5D434D3C057D98EA77519BD2</t>
+  </si>
+  <si>
+    <t>B4444E76186798CFB278018BB378F31CA67074321D896691C3370E3E75996463</t>
+  </si>
+  <si>
+    <t>54E214D2553DF7B188A585CE6B5491DB71E127FC707310520957199302950444</t>
+  </si>
+  <si>
+    <t>A9DB15A985C48302BD120081FA065A6C515AE8917D1E6B77636993DF7796A108</t>
+  </si>
+  <si>
+    <t>C1CB32016CE4ED6E43C81A7428FB24CE6F4061C08FB60EF4BD3A3B7F374BC598</t>
+  </si>
+  <si>
+    <t>C87095A00138A277E0FBAC42539FD5A87687C4B2B2FEE95E11333CF24A3C23F1</t>
+  </si>
+  <si>
+    <t>1DEC5696C840B1D4483677470E02F1BF84D1D09B751C67480B39490440207521</t>
+  </si>
+  <si>
+    <t>525AAF9C04C0ECEE6096C037FB17B9EBBDF97FB2D668CD3519FF00D9C7A7D40F</t>
+  </si>
+  <si>
+    <t>FB2CD0C3F3ECEB4695256AD75E91755C819A776D7156F92A29A6C1DFFEA7F602</t>
+  </si>
+  <si>
+    <t>340254DFF921A0CEF9F1A227F04564D19778976DE0D6D67EED671BB2D94EE0B0</t>
+  </si>
+  <si>
+    <t>5C76E904EAE26FD8A3C2A323A910B30AC2A083755BE071EBFE788A8762B96D5F</t>
+  </si>
+  <si>
+    <t>9EF66089E7A3EFC5832F2F4EF1D368420A42F3B2DCBFE749B0F4B2435C44B75F</t>
+  </si>
+  <si>
+    <t>E789FA14C1441BC079DCEF7CAECA97CD1FBB6985EE34C4957196F9DE9465E452</t>
+  </si>
+  <si>
+    <t>6344B5AC2A01B7129D9DB437B3415876F106160B12BCB19E4ABD1B734006628D</t>
+  </si>
+  <si>
+    <t>CF6DA7204A78F2673CCDF30781A37F7802E99FB70754DAA3EE56422E1AA47B3A</t>
+  </si>
+  <si>
+    <t>cc014</t>
   </si>
 </sst>
 </file>
@@ -632,54 +746,54 @@
   <sheetData>
     <row r="1" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>28</v>
-      </c>
       <c r="G2" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -709,18 +823,18 @@
   <sheetData>
     <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -747,18 +861,18 @@
   <sheetData>
     <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -773,28 +887,30 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="86.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>8</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -809,28 +925,30 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="107.85546875" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>8</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -843,13 +961,15 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="82.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -863,24 +983,39 @@
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>2</v>
+        <v>53</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>3</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>4</v>
+        <v>54</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+        <v>55</v>
+      </c>
+      <c r="B4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -889,13 +1024,15 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="83" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -909,20 +1046,34 @@
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>2</v>
+        <v>59</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>3</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>4</v>
+        <v>60</v>
+      </c>
+      <c r="B3" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>4</v>
+        <v>61</v>
+      </c>
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B5" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -935,14 +1086,16 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="93.85546875" customWidth="1"/>
+    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -955,20 +1108,34 @@
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>2</v>
+        <v>64</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>3</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>4</v>
+        <v>65</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>4</v>
+        <v>66</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -981,14 +1148,16 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8:D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="83.85546875" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1001,20 +1170,34 @@
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>2</v>
+        <v>68</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>3</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>4</v>
+        <v>69</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>4</v>
+        <v>70</v>
+      </c>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -1027,14 +1210,16 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="83.5703125" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1047,20 +1232,34 @@
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>2</v>
+        <v>72</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>3</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>4</v>
+        <v>73</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>4</v>
+        <v>74</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B5" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -1073,13 +1272,15 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="84.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1093,20 +1294,34 @@
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>2</v>
+        <v>76</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>3</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>4</v>
+        <v>77</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>4</v>
+        <v>78</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -1136,15 +1351,15 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -1157,14 +1372,16 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="115.7109375" customWidth="1"/>
+    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1177,20 +1394,50 @@
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>2</v>
+        <v>80</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>3</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>4</v>
+        <v>81</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>4</v>
+        <v>82</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -1203,17 +1450,20 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="116.28515625" customWidth="1"/>
+    <col min="2" max="2" width="17.140625" customWidth="1"/>
+    <col min="3" max="3" width="17" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1221,23 +1471,59 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>2</v>
+    <row r="2" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>86</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+      <c r="C2" s="2"/>
+    </row>
+    <row r="3" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C3" s="2"/>
+    </row>
+    <row r="4" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>4</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="2"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="2"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="2"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1267,12 +1553,12 @@
     </row>
     <row r="2" spans="1:1" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -1304,12 +1590,12 @@
     </row>
     <row r="2" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -1324,7 +1610,7 @@
   </sheetPr>
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
@@ -1340,12 +1626,12 @@
     </row>
     <row r="2" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -1377,12 +1663,12 @@
     </row>
     <row r="2" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -1413,12 +1699,12 @@
     </row>
     <row r="2" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -1449,32 +1735,32 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -1506,10 +1792,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
@@ -1517,16 +1803,16 @@
     </row>
     <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -1559,10 +1845,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
@@ -1570,16 +1856,16 @@
     </row>
     <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -1612,10 +1898,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
@@ -1623,16 +1909,16 @@
     </row>
     <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -1664,10 +1950,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
@@ -1675,93 +1961,93 @@
     </row>
     <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="84.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="84.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>37</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="84.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.85546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="84.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>40</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
